--- a/biology/Médecine/AbbVie/AbbVie.xlsx
+++ b/biology/Médecine/AbbVie/AbbVie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AbbVie est une entreprise de biotechnologie américaine dont le siège est situé à North Chicago dans l’Illinois. Elle est classée sixième plus grande société mondiale de biotechnologie en termes de chiffre d’affaires. En 2023 elle était au 74e rang du Forbes Global 2000[5].
-La société recherche et développe des médicaments thérapeutiques pour le traitement de l'arthrite rhumatoïde[6], du psoriasis, de la maladie de Crohn, de la thyroïde, de la maladie de Parkinson, du VIH, des complications de la mucoviscidose, du faible taux de testostérone, et des complications associées à la maladie rénale chronique.
+AbbVie est une entreprise de biotechnologie américaine dont le siège est situé à North Chicago dans l’Illinois. Elle est classée sixième plus grande société mondiale de biotechnologie en termes de chiffre d’affaires. En 2023 elle était au 74e rang du Forbes Global 2000.
+La société recherche et développe des médicaments thérapeutiques pour le traitement de l'arthrite rhumatoïde, du psoriasis, de la maladie de Crohn, de la thyroïde, de la maladie de Parkinson, du VIH, des complications de la mucoviscidose, du faible taux de testostérone, et des complications associées à la maladie rénale chronique.
 </t>
         </is>
       </c>
@@ -513,19 +525,21 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 19 octobre 2011 Abbott Laboratories a annoncé son intention de se scinder en deux sociétés cotées en bourse, séparant ainsi sa division de fabricants de produits pharmaceutiques basée sur la recherche. Cette nouvelle société nommée AbbVie a été créée le 10 avril 2012. La séparation est entrée en vigueur le 1er janvier 2013 et AbbVie a été officiellement introduite à la Bourse de New York le 2 janvier 2013.
 Le nom « AbbVie » est dérivé d’une combinaison de « Abbott », le nom de son ancienne société mère, avec le suffixe « vie ».
-En 2014, AbbVie souhaite acquérir Shire, après plusieurs refus de ce dernier, celui-ci accepte l'acquisition pour un montant de 32 milliards de livres soit environ 54,7 milliards de dollars[7]. La nouvelle compagnie aura son siège à Jersey. En octobre 2014, AbbVie annule la transaction après une modifications des règles fiscales américaines, qui rend moins attractifs, les inversions. AbbVie paye à Shire 1,64 milliard de dédommagements pour l'annulation de la transaction[8].
-En mars 2015, AbbVie acquiert pour 21 milliards de dollars Pharmacyclics, une entreprise californienne spécialisée dans le traitement de la leucémie ayant 600 employés pour 730 millions de chiffres d'affaires[9].
-En avril 2016, AbbVie annonce l'acquisition de Stemcentrx pour 5,8 milliards de dollars[10].
-La même année, elle entre en conflit avec le laboratoire Amgen pour la propriété intellectuelle du médicament Humira[11],[12], nom commercial de la molécule Adalimumab, une de ses principales sources de revenus[13],[14],[15]. Ce conflit est par la suite résolu[16].
-En juin 2019, AbbVie rachète Allergan, entreprise américaine à l'origine de la création du Botox, pour 63 milliards de dollars[17],[18]. Il s'agit de la plus grosse acquisition du groupe depuis sa création.
-En 2020 le groupe annonce avoir réalisé un partenariat avec l'université d'Utrecht, l'Erasmus Medical Center de Rotterdam et la biotech chinoise Harbour BioMed dans le but de développer un anticorps monoclonal destiné à prévenir et à traiter le Covid-19[19].
-Le 7 décembre 2023 AbbVie annonce la signature d'un accord en vertu duquel il fera l'acquisition de Cerevel Therapeutics pour 8,7 milliards de dollars. Cerevel dispose d'un portefeuille composé de plusieurs traitements au stade clinique et préclinique ayant un potentiel pour plusieurs maladies notamment la schizophrénie, la maladie de Parkinson et les troubles de l'humeur[20].
-En février 2024 l'entreprise finalise l'achat d'ImmunoGen pour 10,1 milliards de dollars. Avec cet achat AbbVie renforce son portefeuille en oncologie et notamment dans le traitement contre le cancer de l'ovaire[21].
-Le 25 mars 2024 AbbVie annonce acquérir pour 137 millions de dollars Landos Biopharma, une société biopharmaceutique axée sur le développement de produits thérapeutiques oraux pour les patients atteints de maladies auto-immunes[22].
+En 2014, AbbVie souhaite acquérir Shire, après plusieurs refus de ce dernier, celui-ci accepte l'acquisition pour un montant de 32 milliards de livres soit environ 54,7 milliards de dollars. La nouvelle compagnie aura son siège à Jersey. En octobre 2014, AbbVie annule la transaction après une modifications des règles fiscales américaines, qui rend moins attractifs, les inversions. AbbVie paye à Shire 1,64 milliard de dédommagements pour l'annulation de la transaction.
+En mars 2015, AbbVie acquiert pour 21 milliards de dollars Pharmacyclics, une entreprise californienne spécialisée dans le traitement de la leucémie ayant 600 employés pour 730 millions de chiffres d'affaires.
+En avril 2016, AbbVie annonce l'acquisition de Stemcentrx pour 5,8 milliards de dollars.
+La même année, elle entre en conflit avec le laboratoire Amgen pour la propriété intellectuelle du médicament Humira nom commercial de la molécule Adalimumab, une de ses principales sources de revenus. Ce conflit est par la suite résolu.
+En juin 2019, AbbVie rachète Allergan, entreprise américaine à l'origine de la création du Botox, pour 63 milliards de dollars,. Il s'agit de la plus grosse acquisition du groupe depuis sa création.
+En 2020 le groupe annonce avoir réalisé un partenariat avec l'université d'Utrecht, l'Erasmus Medical Center de Rotterdam et la biotech chinoise Harbour BioMed dans le but de développer un anticorps monoclonal destiné à prévenir et à traiter le Covid-19.
+Le 7 décembre 2023 AbbVie annonce la signature d'un accord en vertu duquel il fera l'acquisition de Cerevel Therapeutics pour 8,7 milliards de dollars. Cerevel dispose d'un portefeuille composé de plusieurs traitements au stade clinique et préclinique ayant un potentiel pour plusieurs maladies notamment la schizophrénie, la maladie de Parkinson et les troubles de l'humeur.
+En février 2024 l'entreprise finalise l'achat d'ImmunoGen pour 10,1 milliards de dollars. Avec cet achat AbbVie renforce son portefeuille en oncologie et notamment dans le traitement contre le cancer de l'ovaire.
+Le 25 mars 2024 AbbVie annonce acquérir pour 137 millions de dollars Landos Biopharma, une société biopharmaceutique axée sur le développement de produits thérapeutiques oraux pour les patients atteints de maladies auto-immunes.
 </t>
         </is>
       </c>
@@ -554,9 +568,11 @@
           <t>Actionnaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des principaux actionnaires au 27 mai 2024[23].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des principaux actionnaires au 27 mai 2024.
 </t>
         </is>
       </c>
